--- a/leagueStats/leagueStats_TOP5_ESP_minute.xlsx
+++ b/leagueStats/leagueStats_TOP5_ESP_minute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O241"/>
+  <dimension ref="A1:O269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12745,6 +12745,1434 @@
         <v>2</v>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>1</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="O242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H243" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="O243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0</v>
+      </c>
+      <c r="E244" t="n">
+        <v>2</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I244" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O244" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H245" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="O245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0</v>
+      </c>
+      <c r="E246" t="n">
+        <v>3</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G246" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I246" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O246" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>7</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1</v>
+      </c>
+      <c r="F247" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H247" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J247" t="n">
+        <v>2</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="N247" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O247" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>1</v>
+      </c>
+      <c r="E248" t="n">
+        <v>2</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G248" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H248" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I248" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="J248" t="n">
+        <v>1</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="N248" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O248" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>2</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0</v>
+      </c>
+      <c r="F249" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H249" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O249" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>3</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O250" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>1</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1</v>
+      </c>
+      <c r="F251" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G251" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H251" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I251" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>1</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H252" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O252" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>1</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+      <c r="F253" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I253" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N253" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="O253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>2</v>
+      </c>
+      <c r="E254" t="n">
+        <v>2</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G254" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I254" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O254" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>1</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H255" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O255" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>2</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H256" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L256" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N256" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="O256" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>4</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0</v>
+      </c>
+      <c r="F257" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0</v>
+      </c>
+      <c r="H257" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O257" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>1</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N258" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>1</v>
+      </c>
+      <c r="E259" t="n">
+        <v>1</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G259" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H259" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I259" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="O259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>3</v>
+      </c>
+      <c r="E260" t="n">
+        <v>3</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G260" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I260" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N260" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="O260" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>2</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G261" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I261" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="O261" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>1</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G262" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H262" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I262" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J262" t="n">
+        <v>1</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N262" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>2</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H263" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="N263" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O263" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>1</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="O264" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>2</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G265" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H265" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="O265" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>1</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0</v>
+      </c>
+      <c r="F266" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H266" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N266" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="O266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>2</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G267" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I267" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="N267" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O267" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>1</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G269" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L269" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N269" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="O269" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
